--- a/read-from-image-excel-demo.xlsx
+++ b/read-from-image-excel-demo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26206"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\excel-read-from-image\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8EFCF4-B0E1-4908-98DA-3D5E2DC3C6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>After waiting for almost 30 minutes to trade in an old phone part of the buy back program, our customer service rep incorrectly processed the transaction. This led to us waiting another 30 minutes for him to correct it. Don't visit this store if you want pleasant or good service.</t>
+  </si>
+  <si>
+    <t>Wonderful reuben. Map shown on Yelp page is incorrect. It is actually a different Hawkins. I'd recommend a call for directions 412-271-9911.</t>
+  </si>
+  <si>
+    <t>Awesome drink specials during happy hour. Fantastic wings that are crispy and delicious, wing night on Tuesday and Thursday!</t>
+  </si>
+  <si>
+    <t>Don't waste your time. We had two different people come to our house to give us estimates for a deck (one of them the OWNER). Both times, we never heard from them. Not a call, not the estimate, nothing.</t>
+  </si>
+  <si>
+    <t>This is a hidden gem, no really. It took us forever to find but well worth it. It is right across the street from the Rankin Police Station. The menu has a wide selection, I really couldn't decide what I wanted but I went with the ribeye sandwich. I'm glad i did too. Huge sandwich! I added mushrooms, it was very flavorful. My boyfriend got the fish sandwich, he enjoyed it as well. Fast and friendly service. Will definitely be back.</t>
+  </si>
+  <si>
+    <t>I've been informed by a fellow Yelper that they are just closed for the season, I hope they're right! I find it strange they don't keep their phone number in service with a recording and that they didn't cover the course up to protect it-from weather, vandalism, etc. Either way, I can't wait to get my game on in the spring!</t>
+  </si>
+  <si>
+    <t>I drove by yesterday to get a sneak peak. It re-opens on July 14th and I can't wait to take my kids. The new range looks amazing. The entire range appears to be turf, which may or many not help your game, but it looks really nice. The tee boxes look state of the art and the club house looks like something you'll see on a newer course. Can't wait to experience it!</t>
+  </si>
+  <si>
+    <t>Terrible. Preordered my tires and when I arrived they couldn't find the order anywhere. Once we got through that process I waited over 2 hours for them to be put on... I was originally told it would take 30 mins. Slow, over priced, I'll elsewhere next time.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +368,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="66.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>